--- a/SchedulingData/dynamic11/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_13.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.02</v>
+        <v>209.2</v>
       </c>
       <c r="D2" t="n">
-        <v>276.58</v>
+        <v>271.84</v>
       </c>
       <c r="E2" t="n">
-        <v>10.552</v>
+        <v>15.316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233.22</v>
+        <v>256.74</v>
       </c>
       <c r="D3" t="n">
-        <v>295.42</v>
+        <v>309.54</v>
       </c>
       <c r="E3" t="n">
-        <v>13.488</v>
+        <v>11.236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>276.58</v>
+        <v>256.3</v>
       </c>
       <c r="D4" t="n">
-        <v>312.58</v>
+        <v>315.4</v>
       </c>
       <c r="E4" t="n">
-        <v>7.592</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.94</v>
+        <v>224.14</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2</v>
+        <v>273.7</v>
       </c>
       <c r="E5" t="n">
-        <v>14.58</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="6">
@@ -542,128 +542,128 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>312.58</v>
+        <v>309.54</v>
       </c>
       <c r="D6" t="n">
-        <v>362.28</v>
+        <v>355.5</v>
       </c>
       <c r="E6" t="n">
-        <v>4.732</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>295.42</v>
+        <v>315.4</v>
       </c>
       <c r="D7" t="n">
-        <v>349.12</v>
+        <v>359.88</v>
       </c>
       <c r="E7" t="n">
-        <v>10.248</v>
+        <v>8.752000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>247.68</v>
+        <v>208.28</v>
       </c>
       <c r="D8" t="n">
-        <v>325.08</v>
+        <v>261.92</v>
       </c>
       <c r="E8" t="n">
-        <v>10.612</v>
+        <v>11.008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>290.2</v>
+        <v>273.7</v>
       </c>
       <c r="D9" t="n">
-        <v>336.16</v>
+        <v>312.88</v>
       </c>
       <c r="E9" t="n">
-        <v>11.604</v>
+        <v>10.512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>228.16</v>
+        <v>359.88</v>
       </c>
       <c r="D10" t="n">
-        <v>299.36</v>
+        <v>430.9</v>
       </c>
       <c r="E10" t="n">
-        <v>10.724</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>362.28</v>
+        <v>430.9</v>
       </c>
       <c r="D11" t="n">
-        <v>435.58</v>
+        <v>504</v>
       </c>
       <c r="E11" t="n">
-        <v>1.492</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>435.58</v>
+        <v>504</v>
       </c>
       <c r="D12" t="n">
-        <v>538.9</v>
+        <v>567.88</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -671,249 +671,249 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>299.36</v>
+        <v>355.5</v>
       </c>
       <c r="D13" t="n">
-        <v>347.4</v>
+        <v>402.6</v>
       </c>
       <c r="E13" t="n">
-        <v>8.039999999999999</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>325.08</v>
+        <v>312.88</v>
       </c>
       <c r="D14" t="n">
-        <v>378.72</v>
+        <v>353.28</v>
       </c>
       <c r="E14" t="n">
-        <v>6.868</v>
+        <v>8.092000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>347.4</v>
+        <v>261.92</v>
       </c>
       <c r="D15" t="n">
-        <v>397.16</v>
+        <v>343.74</v>
       </c>
       <c r="E15" t="n">
-        <v>5.664</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>336.16</v>
+        <v>567.88</v>
       </c>
       <c r="D16" t="n">
-        <v>386.76</v>
+        <v>615.6</v>
       </c>
       <c r="E16" t="n">
-        <v>9.183999999999999</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>538.9</v>
+        <v>343.74</v>
       </c>
       <c r="D17" t="n">
-        <v>606.1</v>
+        <v>381.44</v>
       </c>
       <c r="E17" t="n">
-        <v>26.92</v>
+        <v>5.776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>378.72</v>
+        <v>209.66</v>
       </c>
       <c r="D18" t="n">
-        <v>427.6</v>
+        <v>270.52</v>
       </c>
       <c r="E18" t="n">
-        <v>4.58</v>
+        <v>16.428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>397.16</v>
+        <v>402.6</v>
       </c>
       <c r="D19" t="n">
-        <v>444.18</v>
+        <v>470.8</v>
       </c>
       <c r="E19" t="n">
-        <v>3.072</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>386.76</v>
+        <v>470.8</v>
       </c>
       <c r="D20" t="n">
-        <v>421.24</v>
+        <v>533.92</v>
       </c>
       <c r="E20" t="n">
-        <v>6.376</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>203.08</v>
+        <v>381.44</v>
       </c>
       <c r="D21" t="n">
-        <v>286.68</v>
+        <v>431.44</v>
       </c>
       <c r="E21" t="n">
-        <v>14.832</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>286.68</v>
+        <v>270.52</v>
       </c>
       <c r="D22" t="n">
-        <v>338.38</v>
+        <v>315.32</v>
       </c>
       <c r="E22" t="n">
-        <v>12.752</v>
+        <v>13.568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>606.1</v>
+        <v>315.32</v>
       </c>
       <c r="D23" t="n">
-        <v>648.9</v>
+        <v>372.42</v>
       </c>
       <c r="E23" t="n">
-        <v>24.28</v>
+        <v>10.488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>338.38</v>
+        <v>533.92</v>
       </c>
       <c r="D24" t="n">
-        <v>405.4</v>
+        <v>599.28</v>
       </c>
       <c r="E24" t="n">
-        <v>10.16</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>349.12</v>
+        <v>271.84</v>
       </c>
       <c r="D25" t="n">
-        <v>393.98</v>
+        <v>363.14</v>
       </c>
       <c r="E25" t="n">
-        <v>7.872</v>
+        <v>10.276</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>405.4</v>
+        <v>353.28</v>
       </c>
       <c r="D26" t="n">
-        <v>452.24</v>
+        <v>407.02</v>
       </c>
       <c r="E26" t="n">
-        <v>7.616</v>
+        <v>5.848</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>427.6</v>
+        <v>363.14</v>
       </c>
       <c r="D27" t="n">
-        <v>481.34</v>
+        <v>405.8</v>
       </c>
       <c r="E27" t="n">
-        <v>2.336</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>393.98</v>
+        <v>431.44</v>
       </c>
       <c r="D28" t="n">
-        <v>451.58</v>
+        <v>522.01</v>
       </c>
       <c r="E28" t="n">
-        <v>5.712</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>451.58</v>
+        <v>522.01</v>
       </c>
       <c r="D29" t="n">
-        <v>505.66</v>
+        <v>581.3099999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>2.904</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>505.66</v>
+        <v>372.42</v>
       </c>
       <c r="D30" t="n">
-        <v>591.55</v>
+        <v>426.8</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>591.55</v>
+        <v>407.02</v>
       </c>
       <c r="D31" t="n">
-        <v>650.85</v>
+        <v>450.78</v>
       </c>
       <c r="E31" t="n">
-        <v>26.76</v>
+        <v>3.092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>481.34</v>
+        <v>405.8</v>
       </c>
       <c r="D32" t="n">
-        <v>568.17</v>
+        <v>455.66</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>4.764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>568.17</v>
+        <v>581.3099999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>638.17</v>
+        <v>613.91</v>
       </c>
       <c r="E33" t="n">
-        <v>27.14</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="34">
@@ -1074,36 +1074,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>444.18</v>
+        <v>455.66</v>
       </c>
       <c r="D34" t="n">
-        <v>517.96</v>
+        <v>492.88</v>
       </c>
       <c r="E34" t="n">
-        <v>0.264</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>517.96</v>
+        <v>426.8</v>
       </c>
       <c r="D35" t="n">
-        <v>584.4299999999999</v>
+        <v>483.24</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>5.136</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>584.4299999999999</v>
+        <v>492.88</v>
       </c>
       <c r="D36" t="n">
-        <v>622.53</v>
+        <v>575.14</v>
       </c>
       <c r="E36" t="n">
-        <v>27.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>648.9</v>
+        <v>575.14</v>
       </c>
       <c r="D37" t="n">
-        <v>705.6</v>
+        <v>640.2</v>
       </c>
       <c r="E37" t="n">
-        <v>22.2</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>452.24</v>
+        <v>450.78</v>
       </c>
       <c r="D38" t="n">
-        <v>496.64</v>
+        <v>498.78</v>
       </c>
       <c r="E38" t="n">
-        <v>4.316</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>496.64</v>
+        <v>498.78</v>
       </c>
       <c r="D39" t="n">
-        <v>543.76</v>
+        <v>608.22</v>
       </c>
       <c r="E39" t="n">
-        <v>1.724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1188,93 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>543.76</v>
+        <v>608.22</v>
       </c>
       <c r="D40" t="n">
-        <v>622.11</v>
+        <v>640.92</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>650.85</v>
+        <v>599.28</v>
       </c>
       <c r="D41" t="n">
-        <v>694.61</v>
+        <v>641.1799999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>24.004</v>
+        <v>25.544</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>421.24</v>
+        <v>641.1799999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>471.1</v>
+        <v>694.74</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>22.788</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>622.53</v>
+        <v>615.6</v>
       </c>
       <c r="D43" t="n">
-        <v>689.9299999999999</v>
+        <v>698.9</v>
       </c>
       <c r="E43" t="n">
-        <v>25.72</v>
+        <v>24.168</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>622.11</v>
+        <v>483.24</v>
       </c>
       <c r="D44" t="n">
-        <v>690.97</v>
+        <v>547.62</v>
       </c>
       <c r="E44" t="n">
-        <v>27.244</v>
+        <v>2.328</v>
       </c>
     </row>
   </sheetData>
